--- a/artfynd/A 17747-2022.xlsx
+++ b/artfynd/A 17747-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY46"/>
+  <dimension ref="A1:AY51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6228,6 +6228,656 @@
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>111974187</v>
+      </c>
+      <c r="B47" t="n">
+        <v>90710</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>5449</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Svart taggsvamp</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Phellodon niger</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Gustavbacke, norr om ån och väg, Jmt</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>439865.3631964622</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6952242.088420792</v>
+      </c>
+      <c r="S47" t="n">
+        <v>10</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark, under tallåga</t>
+        </is>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>111974191</v>
+      </c>
+      <c r="B48" t="n">
+        <v>90652</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Gustavbacke, norr om ån och väg, Jmt</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>439977.5118376439</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6952213.872195411</v>
+      </c>
+      <c r="S48" t="n">
+        <v>10</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
+        </is>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>111974186</v>
+      </c>
+      <c r="B49" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Gustavbacke, norr om ån och väg, Jmt</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>439860.448822267</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6952249.98427855</v>
+      </c>
+      <c r="S49" t="n">
+        <v>10</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
+        </is>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>111974185</v>
+      </c>
+      <c r="B50" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Gustavbacke, norr om ån och väg, Jmt</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>439827.4842555065</v>
+      </c>
+      <c r="R50" t="n">
+        <v>6952232.676732311</v>
+      </c>
+      <c r="S50" t="n">
+        <v>10</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
+        </is>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>111974188</v>
+      </c>
+      <c r="B51" t="n">
+        <v>90652</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Gustavbacke, norr om ån och väg, Jmt</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>439869.6589509377</v>
+      </c>
+      <c r="R51" t="n">
+        <v>6952225.479112641</v>
+      </c>
+      <c r="S51" t="n">
+        <v>10</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
+        </is>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 17747-2022.xlsx
+++ b/artfynd/A 17747-2022.xlsx
@@ -6230,10 +6230,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111974187</v>
+        <v>111974191</v>
       </c>
       <c r="B47" t="n">
-        <v>90710</v>
+        <v>90652</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6246,21 +6246,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5449</v>
+        <v>3100</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>439865.3631964622</v>
+        <v>439977.5118376439</v>
       </c>
       <c r="R47" t="n">
-        <v>6952242.088420792</v>
+        <v>6952213.872195411</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6338,7 +6338,7 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark, under tallåga</t>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6360,10 +6360,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111974191</v>
+        <v>111974185</v>
       </c>
       <c r="B48" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6376,21 +6376,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -6409,10 +6409,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>439977.5118376439</v>
+        <v>439827.4842555065</v>
       </c>
       <c r="R48" t="n">
-        <v>6952213.872195411</v>
+        <v>6952232.676732311</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6620,10 +6620,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111974185</v>
+        <v>111974188</v>
       </c>
       <c r="B50" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6636,21 +6636,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6669,10 +6669,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>439827.4842555065</v>
+        <v>439869.6589509377</v>
       </c>
       <c r="R50" t="n">
-        <v>6952232.676732311</v>
+        <v>6952225.479112641</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6750,10 +6750,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111974188</v>
+        <v>111974187</v>
       </c>
       <c r="B51" t="n">
-        <v>90652</v>
+        <v>90710</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6766,21 +6766,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3100</v>
+        <v>5449</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -6799,10 +6799,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>439869.6589509377</v>
+        <v>439865.3631964622</v>
       </c>
       <c r="R51" t="n">
-        <v>6952225.479112641</v>
+        <v>6952242.088420792</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark, under tallåga</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>

--- a/artfynd/A 17747-2022.xlsx
+++ b/artfynd/A 17747-2022.xlsx
@@ -6230,7 +6230,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111974191</v>
+        <v>111974188</v>
       </c>
       <c r="B47" t="n">
         <v>90652</v>
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>439977.5118376439</v>
+        <v>439869.6589509377</v>
       </c>
       <c r="R47" t="n">
-        <v>6952213.872195411</v>
+        <v>6952225.479112641</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6360,10 +6360,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111974185</v>
+        <v>111974191</v>
       </c>
       <c r="B48" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6376,21 +6376,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -6409,10 +6409,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>439827.4842555065</v>
+        <v>439977.5118376439</v>
       </c>
       <c r="R48" t="n">
-        <v>6952232.676732311</v>
+        <v>6952213.872195411</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6620,10 +6620,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111974188</v>
+        <v>111974185</v>
       </c>
       <c r="B50" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6636,21 +6636,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6669,10 +6669,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>439869.6589509377</v>
+        <v>439827.4842555065</v>
       </c>
       <c r="R50" t="n">
-        <v>6952225.479112641</v>
+        <v>6952232.676732311</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>

--- a/artfynd/A 17747-2022.xlsx
+++ b/artfynd/A 17747-2022.xlsx
@@ -6230,10 +6230,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111974188</v>
+        <v>111974185</v>
       </c>
       <c r="B47" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6246,21 +6246,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>439869.6589509377</v>
+        <v>439827.4842555065</v>
       </c>
       <c r="R47" t="n">
-        <v>6952225.479112641</v>
+        <v>6952232.676732311</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6360,10 +6360,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111974191</v>
+        <v>111974186</v>
       </c>
       <c r="B48" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6376,21 +6376,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -6409,10 +6409,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>439977.5118376439</v>
+        <v>439860.448822267</v>
       </c>
       <c r="R48" t="n">
-        <v>6952213.872195411</v>
+        <v>6952249.98427855</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6490,10 +6490,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111974186</v>
+        <v>111974191</v>
       </c>
       <c r="B49" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6506,21 +6506,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -6539,10 +6539,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>439860.448822267</v>
+        <v>439977.5118376439</v>
       </c>
       <c r="R49" t="n">
-        <v>6952249.98427855</v>
+        <v>6952213.872195411</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6620,10 +6620,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111974185</v>
+        <v>111974188</v>
       </c>
       <c r="B50" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6636,21 +6636,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6669,10 +6669,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>439827.4842555065</v>
+        <v>439869.6589509377</v>
       </c>
       <c r="R50" t="n">
-        <v>6952232.676732311</v>
+        <v>6952225.479112641</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>

--- a/artfynd/A 17747-2022.xlsx
+++ b/artfynd/A 17747-2022.xlsx
@@ -6360,10 +6360,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111974186</v>
+        <v>111974187</v>
       </c>
       <c r="B48" t="n">
-        <v>90682</v>
+        <v>90710</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6376,21 +6376,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2059</v>
+        <v>5449</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -6409,10 +6409,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>439860.448822267</v>
+        <v>439865.3631964622</v>
       </c>
       <c r="R48" t="n">
-        <v>6952249.98427855</v>
+        <v>6952242.088420792</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark, under tallåga</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111974191</v>
+        <v>111974188</v>
       </c>
       <c r="B49" t="n">
         <v>90652</v>
@@ -6539,10 +6539,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>439977.5118376439</v>
+        <v>439869.6589509377</v>
       </c>
       <c r="R49" t="n">
-        <v>6952213.872195411</v>
+        <v>6952225.479112641</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6620,7 +6620,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111974188</v>
+        <v>111974191</v>
       </c>
       <c r="B50" t="n">
         <v>90652</v>
@@ -6669,10 +6669,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>439869.6589509377</v>
+        <v>439977.5118376439</v>
       </c>
       <c r="R50" t="n">
-        <v>6952225.479112641</v>
+        <v>6952213.872195411</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6750,10 +6750,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111974187</v>
+        <v>111974186</v>
       </c>
       <c r="B51" t="n">
-        <v>90710</v>
+        <v>90682</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6766,21 +6766,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5449</v>
+        <v>2059</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -6799,10 +6799,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>439865.3631964622</v>
+        <v>439860.448822267</v>
       </c>
       <c r="R51" t="n">
-        <v>6952242.088420792</v>
+        <v>6952249.98427855</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark, under tallåga</t>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>

--- a/artfynd/A 17747-2022.xlsx
+++ b/artfynd/A 17747-2022.xlsx
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>439827.4842555065</v>
+        <v>439827</v>
       </c>
       <c r="R47" t="n">
-        <v>6952232.676732311</v>
+        <v>6952233</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6312,19 +6312,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6360,10 +6350,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111974187</v>
+        <v>111974191</v>
       </c>
       <c r="B48" t="n">
-        <v>90710</v>
+        <v>90652</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6376,21 +6366,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5449</v>
+        <v>3100</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -6409,10 +6399,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>439865.3631964622</v>
+        <v>439978</v>
       </c>
       <c r="R48" t="n">
-        <v>6952242.088420792</v>
+        <v>6952214</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6442,21 +6432,11 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
@@ -6468,7 +6448,7 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark, under tallåga</t>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6490,10 +6470,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111974188</v>
+        <v>111974186</v>
       </c>
       <c r="B49" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6506,21 +6486,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -6539,10 +6519,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>439869.6589509377</v>
+        <v>439860</v>
       </c>
       <c r="R49" t="n">
-        <v>6952225.479112641</v>
+        <v>6952250</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6572,19 +6552,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6620,10 +6590,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111974191</v>
+        <v>111974187</v>
       </c>
       <c r="B50" t="n">
-        <v>90652</v>
+        <v>90710</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6636,21 +6606,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3100</v>
+        <v>5449</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6669,10 +6639,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>439977.5118376439</v>
+        <v>439865</v>
       </c>
       <c r="R50" t="n">
-        <v>6952213.872195411</v>
+        <v>6952242</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6702,21 +6672,11 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
@@ -6728,7 +6688,7 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark, under tallåga</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6750,10 +6710,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111974186</v>
+        <v>111974188</v>
       </c>
       <c r="B51" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6766,21 +6726,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -6799,10 +6759,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>439860.448822267</v>
+        <v>439870</v>
       </c>
       <c r="R51" t="n">
-        <v>6952249.98427855</v>
+        <v>6952225</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6832,19 +6792,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD51" t="b">

--- a/artfynd/A 17747-2022.xlsx
+++ b/artfynd/A 17747-2022.xlsx
@@ -6230,10 +6230,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111974185</v>
+        <v>111974186</v>
       </c>
       <c r="B47" t="n">
-        <v>90660</v>
+        <v>90816</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6246,21 +6246,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>439827</v>
+        <v>439860</v>
       </c>
       <c r="R47" t="n">
-        <v>6952233</v>
+        <v>6952250</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6350,10 +6350,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111974191</v>
+        <v>111974187</v>
       </c>
       <c r="B48" t="n">
-        <v>90652</v>
+        <v>90844</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6366,21 +6366,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3100</v>
+        <v>5449</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -6399,10 +6399,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>439978</v>
+        <v>439865</v>
       </c>
       <c r="R48" t="n">
-        <v>6952214</v>
+        <v>6952242</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark, under tallåga</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6470,10 +6470,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111974186</v>
+        <v>111974188</v>
       </c>
       <c r="B49" t="n">
-        <v>90682</v>
+        <v>90786</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6486,21 +6486,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -6519,10 +6519,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>439860</v>
+        <v>439870</v>
       </c>
       <c r="R49" t="n">
-        <v>6952250</v>
+        <v>6952225</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6590,10 +6590,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111974187</v>
+        <v>111974185</v>
       </c>
       <c r="B50" t="n">
-        <v>90710</v>
+        <v>90794</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6606,21 +6606,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5449</v>
+        <v>4362</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6639,10 +6639,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>439865</v>
+        <v>439827</v>
       </c>
       <c r="R50" t="n">
-        <v>6952242</v>
+        <v>6952233</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark, under tallåga</t>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6710,10 +6710,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111974188</v>
+        <v>111974191</v>
       </c>
       <c r="B51" t="n">
-        <v>90652</v>
+        <v>90786</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6759,10 +6759,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>439870</v>
+        <v>439978</v>
       </c>
       <c r="R51" t="n">
-        <v>6952225</v>
+        <v>6952214</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>

--- a/artfynd/A 17747-2022.xlsx
+++ b/artfynd/A 17747-2022.xlsx
@@ -6233,7 +6233,7 @@
         <v>111974186</v>
       </c>
       <c r="B47" t="n">
-        <v>90816</v>
+        <v>90830</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>111974187</v>
       </c>
       <c r="B48" t="n">
-        <v>90844</v>
+        <v>90858</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6470,10 +6470,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111974188</v>
+        <v>111974191</v>
       </c>
       <c r="B49" t="n">
-        <v>90786</v>
+        <v>90800</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6519,10 +6519,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>439870</v>
+        <v>439978</v>
       </c>
       <c r="R49" t="n">
-        <v>6952225</v>
+        <v>6952214</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6590,10 +6590,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111974185</v>
+        <v>111974188</v>
       </c>
       <c r="B50" t="n">
-        <v>90794</v>
+        <v>90800</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6606,21 +6606,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6639,10 +6639,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>439827</v>
+        <v>439870</v>
       </c>
       <c r="R50" t="n">
-        <v>6952233</v>
+        <v>6952225</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6710,10 +6710,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111974191</v>
+        <v>111974185</v>
       </c>
       <c r="B51" t="n">
-        <v>90786</v>
+        <v>90808</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6726,21 +6726,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -6759,10 +6759,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>439978</v>
+        <v>439827</v>
       </c>
       <c r="R51" t="n">
-        <v>6952214</v>
+        <v>6952233</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>

--- a/artfynd/A 17747-2022.xlsx
+++ b/artfynd/A 17747-2022.xlsx
@@ -6230,10 +6230,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111974186</v>
+        <v>111974191</v>
       </c>
       <c r="B47" t="n">
-        <v>90830</v>
+        <v>90800</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6246,21 +6246,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>439860</v>
+        <v>439978</v>
       </c>
       <c r="R47" t="n">
-        <v>6952250</v>
+        <v>6952214</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6350,10 +6350,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111974187</v>
+        <v>111974186</v>
       </c>
       <c r="B48" t="n">
-        <v>90858</v>
+        <v>90830</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6366,21 +6366,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5449</v>
+        <v>2059</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -6399,10 +6399,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>439865</v>
+        <v>439860</v>
       </c>
       <c r="R48" t="n">
-        <v>6952242</v>
+        <v>6952250</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark, under tallåga</t>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6470,10 +6470,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111974191</v>
+        <v>111974185</v>
       </c>
       <c r="B49" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6486,21 +6486,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -6519,10 +6519,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>439978</v>
+        <v>439827</v>
       </c>
       <c r="R49" t="n">
-        <v>6952214</v>
+        <v>6952233</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6590,10 +6590,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111974188</v>
+        <v>111974187</v>
       </c>
       <c r="B50" t="n">
-        <v>90800</v>
+        <v>90858</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6606,21 +6606,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3100</v>
+        <v>5449</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6639,10 +6639,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>439870</v>
+        <v>439865</v>
       </c>
       <c r="R50" t="n">
-        <v>6952225</v>
+        <v>6952242</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark</t>
+          <t>äldre renbetad ristallskog med lavfläckar på torr moränmark, under tallåga</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6710,10 +6710,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111974185</v>
+        <v>111974188</v>
       </c>
       <c r="B51" t="n">
-        <v>90808</v>
+        <v>90800</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6726,21 +6726,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -6759,10 +6759,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>439827</v>
+        <v>439870</v>
       </c>
       <c r="R51" t="n">
-        <v>6952233</v>
+        <v>6952225</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>

--- a/artfynd/A 17747-2022.xlsx
+++ b/artfynd/A 17747-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY51"/>
+  <dimension ref="A1:AY57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6828,6 +6828,684 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>112547017</v>
+      </c>
+      <c r="B52" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Gustavbacke (Gustavbacke), Jmt</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>439919</v>
+      </c>
+      <c r="R52" t="n">
+        <v>6952481</v>
+      </c>
+      <c r="S52" t="n">
+        <v>25</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>08:03</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>08:03</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Håkan Blomqvist</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Håkan Blomqvist</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>112546927</v>
+      </c>
+      <c r="B53" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Gustavbacke, Jmt</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>440071</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6952367</v>
+      </c>
+      <c r="S53" t="n">
+        <v>25</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Håkan Blomqvist</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Håkan Blomqvist</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>112547097</v>
+      </c>
+      <c r="B54" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Gustavbacke (Gustavbacke), Jmt</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>439879</v>
+      </c>
+      <c r="R54" t="n">
+        <v>6952505</v>
+      </c>
+      <c r="S54" t="n">
+        <v>25</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>08:11</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>08:11</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Håkan Blomqvist</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Håkan Blomqvist</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>112547159</v>
+      </c>
+      <c r="B55" t="n">
+        <v>90830</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Gustavbacke (Gustavbacke), Jmt</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>439800</v>
+      </c>
+      <c r="R55" t="n">
+        <v>6952502</v>
+      </c>
+      <c r="S55" t="n">
+        <v>25</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>08:14</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>08:14</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Håkan Blomqvist</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Håkan Blomqvist</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>112546970</v>
+      </c>
+      <c r="B56" t="n">
+        <v>90808</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Gustavbacke (Gustavbacke), Jmt</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>439971</v>
+      </c>
+      <c r="R56" t="n">
+        <v>6952512</v>
+      </c>
+      <c r="S56" t="n">
+        <v>25</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>08:01</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>08:01</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Håkan Blomqvist</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Håkan Blomqvist</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>112546997</v>
+      </c>
+      <c r="B57" t="n">
+        <v>90808</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Gustavbacke (Gustavbacke), Jmt</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>439940</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6952516</v>
+      </c>
+      <c r="S57" t="n">
+        <v>25</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Härjedalen</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Vemdalen</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>08:03</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>08:03</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Håkan Blomqvist</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Håkan Blomqvist</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
